--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="559">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T12:37:33+00:00</t>
+    <t>2023-02-01T15:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1266,6 +1266,497 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+  </si>
+  <si>
+    <t>hiv-organization</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-organization</t>
+  </si>
+  <si>
+    <t>HIVOrganization</t>
+  </si>
+  <si>
+    <t>HIV Organization</t>
+  </si>
+  <si>
+    <t>HIV Organization for case report - this represents a health facility</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+  </si>
+  <si>
+    <t>A grouping of people or organizations with a common purpose</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+  </si>
+  <si>
+    <t>Organization.id</t>
+  </si>
+  <si>
+    <t>Organization.meta</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.identifier</t>
+  </si>
+  <si>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-1
+</t>
+  </si>
+  <si>
+    <t>Organization.active</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use.</t>
+  </si>
+  <si>
+    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
+  </si>
+  <si>
+    <t>Organization.type</t>
+  </si>
+  <si>
+    <t>Kind of organization</t>
+  </si>
+  <si>
+    <t>The kind(s) of organization that this is.</t>
+  </si>
+  <si>
+    <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
+When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
+We expect that some jurisdictions will profile this optionality to be a single cardinality.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Used to categorize the organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+  </si>
+  <si>
+    <t>Organization.name</t>
+  </si>
+  <si>
+    <t>Name used for the organization</t>
+  </si>
+  <si>
+    <t>A name associated with the organization.</t>
+  </si>
+  <si>
+    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+  </si>
+  <si>
+    <t>Need to use the name as the label of the organization.</t>
+  </si>
+  <si>
+    <t>Organization.alias</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
+  </si>
+  <si>
+    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
+  </si>
+  <si>
+    <t>Over time locations and organizations go through many changes and can be known by different names.
+For searching knowing previous names that the organization was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>Organization.telecom</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization.</t>
+  </si>
+  <si>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+  </si>
+  <si>
+    <t>Human contact for the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-3
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>Organization.address</t>
+  </si>
+  <si>
+    <t>An address for the organization</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-2
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>Organization.address.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>Organization.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>Organization.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>Organization.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>Organization.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>Organization.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>Organization.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>Organization.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>Organization.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>Organization.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>Organization.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
+</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B22"/>
+  <dimension ref="A2:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1571,6 +2062,168 @@
         <v>37</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1578,7 +2231,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK64"/>
+  <dimension ref="A1:AK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1587,7 +2240,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.89453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.47265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1607,7 +2260,7 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -8380,6 +9033,4004 @@
         <v>94</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R67" s="2"/>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" s="2"/>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" s="2"/>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" s="2"/>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" s="2"/>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Q77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R77" s="2"/>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" s="2"/>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Q79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R79" s="2"/>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" s="2"/>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" s="2"/>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" s="2"/>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" s="2"/>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" s="2"/>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" s="2"/>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R86" s="2"/>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R87" s="2"/>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" s="2"/>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" s="2"/>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" s="2"/>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" s="2"/>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" s="2"/>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" s="2"/>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" s="2"/>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" s="2"/>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" s="2"/>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" s="2"/>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" s="2"/>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Q100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R100" s="2"/>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Q101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R101" s="2"/>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="Q102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R102" s="2"/>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:21:20+00:00</t>
+    <t>2023-02-02T08:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1331,8 +1331,72 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">org-1
 </t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS</t>
+  </si>
+  <si>
+    <t>HTS</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/hiv-organization</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -2231,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK102"/>
+  <dimension ref="A1:AK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10054,16 +10118,16 @@
         <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>418</v>
@@ -10075,7 +10139,7 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>94</v>
@@ -10086,18 +10150,20 @@
         <v>401</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -10106,85 +10172,81 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="M75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" s="2"/>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Q75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>94</v>
@@ -10195,7 +10257,7 @@
         <v>401</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>428</v>
@@ -10209,7 +10271,7 @@
         <v>75</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>77</v>
@@ -10218,23 +10280,19 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>429</v>
+        <v>149</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10258,13 +10316,13 @@
         <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>77</v>
@@ -10282,19 +10340,19 @@
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
@@ -10302,21 +10360,21 @@
         <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>77</v>
@@ -10325,23 +10383,21 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>437</v>
+        <v>127</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>438</v>
+        <v>154</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10377,31 +10433,31 @@
         <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>436</v>
+        <v>158</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
@@ -10409,10 +10465,10 @@
         <v>401</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10423,31 +10479,31 @@
         <v>75</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>442</v>
+        <v>161</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>443</v>
+        <v>162</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>444</v>
+        <v>163</v>
       </c>
       <c r="P78" t="s" s="2">
-        <v>445</v>
+        <v>164</v>
       </c>
       <c r="Q78" t="s" s="2">
         <v>77</v>
@@ -10472,13 +10528,13 @@
         <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>77</v>
@@ -10496,13 +10552,13 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>441</v>
+        <v>168</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
@@ -10516,10 +10572,10 @@
         <v>401</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10530,7 +10586,7 @@
         <v>75</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>77</v>
@@ -10539,22 +10595,22 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>447</v>
+        <v>172</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>448</v>
+        <v>173</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>449</v>
+        <v>174</v>
       </c>
       <c r="P79" t="s" s="2">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="Q79" t="s" s="2">
         <v>77</v>
@@ -10579,13 +10635,13 @@
         <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>77</v>
@@ -10603,19 +10659,19 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>446</v>
+        <v>179</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>452</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
@@ -10623,10 +10679,10 @@
         <v>401</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10646,35 +10702,35 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>289</v>
+        <v>96</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>454</v>
+        <v>182</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>455</v>
+        <v>183</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>456</v>
+        <v>184</v>
       </c>
       <c r="P80" t="s" s="2">
-        <v>457</v>
+        <v>185</v>
       </c>
       <c r="Q80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="U80" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="V80" t="s" s="2">
         <v>77</v>
@@ -10710,19 +10766,19 @@
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>453</v>
+        <v>188</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>459</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
@@ -10730,10 +10786,10 @@
         <v>401</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10741,7 +10797,7 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -10753,18 +10809,20 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>77</v>
@@ -10777,7 +10835,7 @@
         <v>77</v>
       </c>
       <c r="U81" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="V81" t="s" s="2">
         <v>77</v>
@@ -10813,7 +10871,7 @@
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
@@ -10825,7 +10883,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
@@ -10833,21 +10891,21 @@
         <v>401</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>77</v>
@@ -10856,20 +10914,18 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>77</v>
@@ -10906,31 +10962,31 @@
         <v>77</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
@@ -10938,10 +10994,10 @@
         <v>401</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10958,26 +11014,24 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>463</v>
+        <v>205</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>464</v>
+        <v>206</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>77</v>
       </c>
@@ -10989,7 +11043,7 @@
         <v>77</v>
       </c>
       <c r="U83" t="s" s="2">
-        <v>467</v>
+        <v>77</v>
       </c>
       <c r="V83" t="s" s="2">
         <v>77</v>
@@ -11001,13 +11055,13 @@
         <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>77</v>
@@ -11025,7 +11079,7 @@
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>470</v>
+        <v>208</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
@@ -11045,10 +11099,10 @@
         <v>401</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11065,28 +11119,32 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="P84" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="Q84" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11094,7 +11152,7 @@
         <v>77</v>
       </c>
       <c r="U84" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="V84" t="s" s="2">
         <v>77</v>
@@ -11106,13 +11164,13 @@
         <v>77</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="AB84" t="s" s="2">
         <v>77</v>
@@ -11130,7 +11188,7 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
@@ -11150,10 +11208,10 @@
         <v>401</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11164,7 +11222,7 @@
         <v>75</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>77</v>
@@ -11176,19 +11234,19 @@
         <v>83</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>236</v>
+        <v>453</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -11201,7 +11259,7 @@
         <v>77</v>
       </c>
       <c r="U85" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="V85" t="s" s="2">
         <v>77</v>
@@ -11213,13 +11271,13 @@
         <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>77</v>
@@ -11237,13 +11295,13 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
@@ -11257,10 +11315,10 @@
         <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11268,10 +11326,10 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11286,13 +11344,17 @@
         <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="Q86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11304,7 +11366,7 @@
         <v>77</v>
       </c>
       <c r="U86" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="V86" t="s" s="2">
         <v>77</v>
@@ -11340,16 +11402,16 @@
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>94</v>
@@ -11360,21 +11422,21 @@
         <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -11383,19 +11445,23 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11407,7 +11473,7 @@
         <v>77</v>
       </c>
       <c r="U87" t="s" s="2">
-        <v>494</v>
+        <v>77</v>
       </c>
       <c r="V87" t="s" s="2">
         <v>77</v>
@@ -11443,13 +11509,13 @@
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
@@ -11463,21 +11529,21 @@
         <v>401</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>497</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>77</v>
@@ -11486,21 +11552,23 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="P88" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="Q88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11512,7 +11580,7 @@
         <v>77</v>
       </c>
       <c r="U88" t="s" s="2">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="V88" t="s" s="2">
         <v>77</v>
@@ -11548,19 +11616,19 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>94</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89">
@@ -11568,14 +11636,14 @@
         <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
@@ -11591,19 +11659,23 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Q89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11651,19 +11723,19 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>94</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90">
@@ -11671,14 +11743,14 @@
         <v>401</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11694,16 +11766,16 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>510</v>
+        <v>149</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>511</v>
+        <v>150</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11718,7 +11790,7 @@
         <v>77</v>
       </c>
       <c r="U90" t="s" s="2">
-        <v>512</v>
+        <v>77</v>
       </c>
       <c r="V90" t="s" s="2">
         <v>77</v>
@@ -11754,7 +11826,7 @@
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>513</v>
+        <v>151</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -11766,7 +11838,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
@@ -11774,21 +11846,21 @@
         <v>401</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>77</v>
@@ -11797,19 +11869,19 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>515</v>
+        <v>127</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>516</v>
+        <v>154</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>517</v>
+        <v>129</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11847,31 +11919,31 @@
         <v>77</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>518</v>
+        <v>158</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
@@ -11879,10 +11951,10 @@
         <v>401</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11899,23 +11971,25 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P92" t="s" s="2">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>77</v>
@@ -11928,7 +12002,7 @@
         <v>77</v>
       </c>
       <c r="U92" t="s" s="2">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="V92" t="s" s="2">
         <v>77</v>
@@ -11940,13 +12014,13 @@
         <v>77</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>77</v>
@@ -11964,7 +12038,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
@@ -11984,10 +12058,10 @@
         <v>401</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12010,18 +12084,18 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12033,7 +12107,7 @@
         <v>77</v>
       </c>
       <c r="U93" t="s" s="2">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="V93" t="s" s="2">
         <v>77</v>
@@ -12045,13 +12119,13 @@
         <v>77</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>77</v>
+        <v>498</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>77</v>
@@ -12069,7 +12143,7 @@
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -12089,10 +12163,10 @@
         <v>401</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12103,7 +12177,7 @@
         <v>75</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>77</v>
@@ -12112,22 +12186,22 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="P94" t="s" s="2">
-        <v>533</v>
+        <v>236</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>77</v>
@@ -12140,7 +12214,7 @@
         <v>77</v>
       </c>
       <c r="U94" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="V94" t="s" s="2">
         <v>77</v>
@@ -12176,13 +12250,13 @@
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
@@ -12196,10 +12270,10 @@
         <v>401</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12210,7 +12284,7 @@
         <v>75</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>77</v>
@@ -12219,16 +12293,16 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>149</v>
+        <v>507</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>150</v>
+        <v>508</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -12243,7 +12317,7 @@
         <v>77</v>
       </c>
       <c r="U95" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="V95" t="s" s="2">
         <v>77</v>
@@ -12279,19 +12353,19 @@
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>151</v>
+        <v>510</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -12299,21 +12373,21 @@
         <v>401</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>77</v>
@@ -12322,20 +12396,18 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>127</v>
+        <v>513</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>77</v>
@@ -12348,7 +12420,7 @@
         <v>77</v>
       </c>
       <c r="U96" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="V96" t="s" s="2">
         <v>77</v>
@@ -12384,19 +12456,19 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>158</v>
+        <v>516</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97">
@@ -12404,46 +12476,44 @@
         <v>401</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>322</v>
+        <v>518</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>323</v>
+        <v>519</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>324</v>
+        <v>520</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>77</v>
       </c>
@@ -12455,7 +12525,7 @@
         <v>77</v>
       </c>
       <c r="U97" t="s" s="2">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="V97" t="s" s="2">
         <v>77</v>
@@ -12491,19 +12561,19 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>325</v>
+        <v>523</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98">
@@ -12511,18 +12581,18 @@
         <v>401</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -12534,21 +12604,19 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>77</v>
       </c>
@@ -12572,13 +12640,13 @@
         <v>77</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>77</v>
@@ -12596,7 +12664,7 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
@@ -12616,14 +12684,14 @@
         <v>401</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
@@ -12639,21 +12707,19 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>546</v>
-      </c>
+      <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -12665,7 +12731,7 @@
         <v>77</v>
       </c>
       <c r="U99" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="V99" t="s" s="2">
         <v>77</v>
@@ -12701,7 +12767,7 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
@@ -12721,10 +12787,10 @@
         <v>401</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12732,10 +12798,10 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>77</v>
@@ -12744,21 +12810,21 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
         <v>77</v>
       </c>
@@ -12806,13 +12872,13 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>77</v>
@@ -12826,10 +12892,10 @@
         <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12849,20 +12915,20 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q101" t="s" s="2">
         <v>77</v>
@@ -12875,7 +12941,7 @@
         <v>77</v>
       </c>
       <c r="U101" t="s" s="2">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="V101" t="s" s="2">
         <v>77</v>
@@ -12911,7 +12977,7 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
@@ -12931,10 +12997,10 @@
         <v>401</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12945,7 +13011,7 @@
         <v>75</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>77</v>
@@ -12954,20 +13020,20 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>555</v>
+        <v>204</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="Q102" t="s" s="2">
         <v>77</v>
@@ -13016,18 +13082,965 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="P103" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AH102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI102" t="s" s="2">
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK102" t="s" s="2">
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="Q107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Q108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Q109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Q110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Q111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK111" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T08:43:50+00:00</t>
+    <t>2023-02-02T09:41:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T14:36:15+00:00</t>
+    <t>2023-02-08T06:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14516" uniqueCount="1469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16255" uniqueCount="1475">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:23:24+00:00</t>
+    <t>2023-02-10T14:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4565,6 +4565,24 @@
   </si>
   <si>
     <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-artregimen-lines</t>
+  </si>
+  <si>
+    <t>date-hiv-test-done</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/date-hiv-test-done</t>
+  </si>
+  <si>
+    <t>DateHIVTestDone</t>
+  </si>
+  <si>
+    <t>Date HIV Test Done</t>
+  </si>
+  <si>
+    <t>This profile is to record the Date when HIV test was done for a patient</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-hiv-test-done</t>
   </si>
   <si>
     <t>transferring-facility-encounter</t>
@@ -4713,7 +4731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B192"/>
+  <dimension ref="A2:B213"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6170,7 +6188,7 @@
         <v>31</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="190">
@@ -6178,7 +6196,7 @@
         <v>33</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>1013</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="191">
@@ -6194,6 +6212,168 @@
         <v>37</v>
       </c>
       <c r="B192" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B213" t="s" s="2">
         <v>38</v>
       </c>
     </row>
@@ -6204,7 +6384,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK429"/>
+  <dimension ref="A1:AK480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -43631,14 +43811,14 @@
         <v>1464</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
-        <v>1014</v>
+        <v>1248</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" t="s" s="2">
@@ -43660,12 +43840,14 @@
         <v>79</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1015</v>
+        <v>1249</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1016</v>
-      </c>
-      <c r="O357" s="2"/>
+        <v>1250</v>
+      </c>
+      <c r="O357" t="s" s="2">
+        <v>1251</v>
+      </c>
       <c r="P357" s="2"/>
       <c r="Q357" t="s" s="2">
         <v>78</v>
@@ -43714,7 +43896,7 @@
         <v>78</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>76</v>
@@ -43734,10 +43916,10 @@
         <v>1464</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1017</v>
+        <v>1252</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1017</v>
+        <v>1252</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -43839,10 +44021,10 @@
         <v>1464</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1018</v>
+        <v>1253</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1018</v>
+        <v>1253</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -43942,10 +44124,10 @@
         <v>1464</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1019</v>
+        <v>1254</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1019</v>
+        <v>1254</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -44047,10 +44229,10 @@
         <v>1464</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1020</v>
+        <v>1255</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1020</v>
+        <v>1255</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -44152,10 +44334,10 @@
         <v>1464</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1021</v>
+        <v>1256</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1021</v>
+        <v>1256</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -44257,10 +44439,10 @@
         <v>1464</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -44362,10 +44544,10 @@
         <v>1464</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1023</v>
+        <v>1258</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1023</v>
+        <v>1258</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -44467,10 +44649,10 @@
         <v>1464</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1027</v>
+        <v>1259</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1027</v>
+        <v>1259</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -44574,10 +44756,10 @@
         <v>1464</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1028</v>
+        <v>1260</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1028</v>
+        <v>1260</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -44603,13 +44785,15 @@
         <v>139</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>1029</v>
+        <v>1261</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>1030</v>
+        <v>1262</v>
       </c>
       <c r="O366" s="2"/>
-      <c r="P366" s="2"/>
+      <c r="P366" t="s" s="2">
+        <v>1263</v>
+      </c>
       <c r="Q366" t="s" s="2">
         <v>78</v>
       </c>
@@ -44657,7 +44841,7 @@
         <v>78</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>1028</v>
+        <v>1260</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>76</v>
@@ -44677,44 +44861,44 @@
         <v>1464</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1031</v>
+        <v>1264</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1031</v>
+        <v>1264</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
-        <v>78</v>
+        <v>1265</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H367" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I367" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K367" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>103</v>
+        <v>1266</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1032</v>
+        <v>1267</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="O367" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="P367" s="2"/>
+        <v>1268</v>
+      </c>
+      <c r="O367" s="2"/>
+      <c r="P367" t="s" s="2">
+        <v>1269</v>
+      </c>
       <c r="Q367" t="s" s="2">
         <v>78</v>
       </c>
@@ -44738,13 +44922,13 @@
         <v>78</v>
       </c>
       <c r="Y367" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Z367" t="s" s="2">
-        <v>1035</v>
+        <v>78</v>
       </c>
       <c r="AA367" t="s" s="2">
-        <v>1036</v>
+        <v>78</v>
       </c>
       <c r="AB367" t="s" s="2">
         <v>78</v>
@@ -44762,13 +44946,13 @@
         <v>78</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1031</v>
+        <v>1264</v>
       </c>
       <c r="AH367" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI367" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ367" t="s" s="2">
         <v>78</v>
@@ -44782,14 +44966,14 @@
         <v>1464</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1037</v>
+        <v>1270</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1037</v>
+        <v>1270</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
-        <v>78</v>
+        <v>1271</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" t="s" s="2">
@@ -44805,19 +44989,19 @@
         <v>78</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>254</v>
+        <v>1272</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1038</v>
+        <v>1273</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1039</v>
+        <v>1274</v>
       </c>
       <c r="O368" t="s" s="2">
-        <v>1040</v>
+        <v>1275</v>
       </c>
       <c r="P368" s="2"/>
       <c r="Q368" t="s" s="2">
@@ -44867,7 +45051,7 @@
         <v>78</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1037</v>
+        <v>1270</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>76</v>
@@ -44887,10 +45071,10 @@
         <v>1464</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1041</v>
+        <v>1276</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1041</v>
+        <v>1276</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -44898,7 +45082,7 @@
       </c>
       <c r="F369" s="2"/>
       <c r="G369" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H369" t="s" s="2">
         <v>83</v>
@@ -44907,22 +45091,26 @@
         <v>78</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>260</v>
+        <v>1277</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O369" s="2"/>
-      <c r="P369" s="2"/>
+        <v>1278</v>
+      </c>
+      <c r="O369" t="s" s="2">
+        <v>1279</v>
+      </c>
+      <c r="P369" t="s" s="2">
+        <v>1280</v>
+      </c>
       <c r="Q369" t="s" s="2">
         <v>78</v>
       </c>
@@ -44931,7 +45119,7 @@
         <v>78</v>
       </c>
       <c r="T369" t="s" s="2">
-        <v>78</v>
+        <v>1281</v>
       </c>
       <c r="U369" t="s" s="2">
         <v>78</v>
@@ -44946,13 +45134,13 @@
         <v>78</v>
       </c>
       <c r="Y369" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z369" t="s" s="2">
-        <v>78</v>
+        <v>1282</v>
       </c>
       <c r="AA369" t="s" s="2">
-        <v>78</v>
+        <v>1283</v>
       </c>
       <c r="AB369" t="s" s="2">
         <v>78</v>
@@ -44970,10 +45158,10 @@
         <v>78</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>262</v>
+        <v>1276</v>
       </c>
       <c r="AH369" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI369" t="s" s="2">
         <v>83</v>
@@ -44982,7 +45170,7 @@
         <v>78</v>
       </c>
       <c r="AK369" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="370">
@@ -44990,14 +45178,14 @@
         <v>1464</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1042</v>
+        <v>1284</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1042</v>
+        <v>1284</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F370" s="2"/>
       <c r="G370" t="s" s="2">
@@ -45016,18 +45204,20 @@
         <v>78</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>128</v>
+        <v>1285</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>264</v>
+        <v>1286</v>
       </c>
       <c r="O370" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P370" s="2"/>
+        <v>1287</v>
+      </c>
+      <c r="P370" t="s" s="2">
+        <v>1288</v>
+      </c>
       <c r="Q370" t="s" s="2">
         <v>78</v>
       </c>
@@ -45051,13 +45241,13 @@
         <v>78</v>
       </c>
       <c r="Y370" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z370" t="s" s="2">
-        <v>78</v>
+        <v>1289</v>
       </c>
       <c r="AA370" t="s" s="2">
-        <v>78</v>
+        <v>1290</v>
       </c>
       <c r="AB370" t="s" s="2">
         <v>78</v>
@@ -45075,7 +45265,7 @@
         <v>78</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>265</v>
+        <v>1284</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>76</v>
@@ -45087,7 +45277,7 @@
         <v>78</v>
       </c>
       <c r="AK370" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="371">
@@ -45095,45 +45285,45 @@
         <v>1464</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1043</v>
+        <v>1291</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1043</v>
+        <v>1291</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
-        <v>267</v>
+        <v>1292</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H371" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I371" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K371" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M371" t="s" s="2">
-        <v>268</v>
+        <v>1293</v>
       </c>
       <c r="N371" t="s" s="2">
-        <v>269</v>
+        <v>1294</v>
       </c>
       <c r="O371" t="s" s="2">
-        <v>130</v>
+        <v>1295</v>
       </c>
       <c r="P371" t="s" s="2">
-        <v>136</v>
+        <v>1296</v>
       </c>
       <c r="Q371" t="s" s="2">
         <v>78</v>
@@ -45158,13 +45348,11 @@
         <v>78</v>
       </c>
       <c r="Y371" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z371" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Z371" s="2"/>
       <c r="AA371" t="s" s="2">
-        <v>78</v>
+        <v>1469</v>
       </c>
       <c r="AB371" t="s" s="2">
         <v>78</v>
@@ -45182,19 +45370,19 @@
         <v>78</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>270</v>
+        <v>1291</v>
       </c>
       <c r="AH371" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI371" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ371" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK371" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="372">
@@ -45202,10 +45390,10 @@
         <v>1464</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1044</v>
+        <v>1298</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1044</v>
+        <v>1298</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -45225,19 +45413,23 @@
         <v>78</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>103</v>
+        <v>1299</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1032</v>
+        <v>1300</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="O372" s="2"/>
-      <c r="P372" s="2"/>
+        <v>1301</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>1302</v>
+      </c>
+      <c r="P372" t="s" s="2">
+        <v>1303</v>
+      </c>
       <c r="Q372" t="s" s="2">
         <v>78</v>
       </c>
@@ -45261,13 +45453,13 @@
         <v>78</v>
       </c>
       <c r="Y372" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Z372" t="s" s="2">
-        <v>1035</v>
+        <v>78</v>
       </c>
       <c r="AA372" t="s" s="2">
-        <v>1036</v>
+        <v>78</v>
       </c>
       <c r="AB372" t="s" s="2">
         <v>78</v>
@@ -45285,10 +45477,10 @@
         <v>78</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1044</v>
+        <v>1298</v>
       </c>
       <c r="AH372" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI372" t="s" s="2">
         <v>83</v>
@@ -45305,10 +45497,10 @@
         <v>1464</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1045</v>
+        <v>1304</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1045</v>
+        <v>1304</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -45316,10 +45508,10 @@
       </c>
       <c r="F373" s="2"/>
       <c r="G373" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H373" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I373" t="s" s="2">
         <v>78</v>
@@ -45328,18 +45520,20 @@
         <v>78</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1046</v>
+        <v>1305</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="O373" s="2"/>
+        <v>1306</v>
+      </c>
+      <c r="O373" t="s" s="2">
+        <v>1307</v>
+      </c>
       <c r="P373" s="2"/>
       <c r="Q373" t="s" s="2">
         <v>78</v>
@@ -45388,13 +45582,13 @@
         <v>78</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1045</v>
+        <v>1304</v>
       </c>
       <c r="AH373" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI373" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ373" t="s" s="2">
         <v>78</v>
@@ -45408,14 +45602,14 @@
         <v>1464</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1048</v>
+        <v>1308</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1048</v>
+        <v>1308</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
-        <v>78</v>
+        <v>1309</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" t="s" s="2">
@@ -45434,16 +45628,20 @@
         <v>84</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>1049</v>
+        <v>205</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>1050</v>
+        <v>1310</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>1051</v>
-      </c>
-      <c r="O374" s="2"/>
-      <c r="P374" s="2"/>
+        <v>1311</v>
+      </c>
+      <c r="O374" t="s" s="2">
+        <v>1312</v>
+      </c>
+      <c r="P374" t="s" s="2">
+        <v>1313</v>
+      </c>
       <c r="Q374" t="s" s="2">
         <v>78</v>
       </c>
@@ -45467,13 +45665,13 @@
         <v>78</v>
       </c>
       <c r="Y374" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z374" t="s" s="2">
-        <v>1052</v>
+        <v>78</v>
       </c>
       <c r="AA374" t="s" s="2">
-        <v>1053</v>
+        <v>78</v>
       </c>
       <c r="AB374" t="s" s="2">
         <v>78</v>
@@ -45491,10 +45689,10 @@
         <v>78</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>1048</v>
+        <v>1308</v>
       </c>
       <c r="AH374" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI374" t="s" s="2">
         <v>83</v>
@@ -45511,21 +45709,21 @@
         <v>1464</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1054</v>
+        <v>1314</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1054</v>
+        <v>1314</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
-        <v>78</v>
+        <v>1315</v>
       </c>
       <c r="F375" s="2"/>
       <c r="G375" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H375" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I375" t="s" s="2">
         <v>78</v>
@@ -45534,19 +45732,23 @@
         <v>78</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>1055</v>
+        <v>1316</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>1056</v>
-      </c>
-      <c r="O375" s="2"/>
-      <c r="P375" s="2"/>
+        <v>1317</v>
+      </c>
+      <c r="O375" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="P375" t="s" s="2">
+        <v>1319</v>
+      </c>
       <c r="Q375" t="s" s="2">
         <v>78</v>
       </c>
@@ -45582,25 +45784,23 @@
         <v>78</v>
       </c>
       <c r="AC375" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD375" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AD375" s="2"/>
       <c r="AE375" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF375" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>1054</v>
+        <v>1314</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI375" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ375" t="s" s="2">
         <v>78</v>
@@ -45614,18 +45814,20 @@
         <v>1464</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1057</v>
+        <v>1320</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1057</v>
-      </c>
-      <c r="D376" s="2"/>
+        <v>1314</v>
+      </c>
+      <c r="D376" t="s" s="2">
+        <v>1321</v>
+      </c>
       <c r="E376" t="s" s="2">
-        <v>78</v>
+        <v>1315</v>
       </c>
       <c r="F376" s="2"/>
       <c r="G376" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H376" t="s" s="2">
         <v>83</v>
@@ -45637,19 +45839,23 @@
         <v>78</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>260</v>
+        <v>1316</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O376" s="2"/>
-      <c r="P376" s="2"/>
+        <v>1317</v>
+      </c>
+      <c r="O376" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="P376" t="s" s="2">
+        <v>1319</v>
+      </c>
       <c r="Q376" t="s" s="2">
         <v>78</v>
       </c>
@@ -45697,7 +45903,7 @@
         <v>78</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>262</v>
+        <v>1314</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>76</v>
@@ -45709,7 +45915,7 @@
         <v>78</v>
       </c>
       <c r="AK376" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="377">
@@ -45717,21 +45923,21 @@
         <v>1464</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1058</v>
+        <v>1322</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1058</v>
+        <v>1322</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F377" s="2"/>
       <c r="G377" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H377" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I377" t="s" s="2">
         <v>78</v>
@@ -45740,19 +45946,19 @@
         <v>78</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>127</v>
+        <v>1323</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>128</v>
+        <v>1324</v>
       </c>
       <c r="N377" t="s" s="2">
-        <v>264</v>
+        <v>1325</v>
       </c>
       <c r="O377" t="s" s="2">
-        <v>130</v>
+        <v>1326</v>
       </c>
       <c r="P377" s="2"/>
       <c r="Q377" t="s" s="2">
@@ -45802,19 +46008,19 @@
         <v>78</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>265</v>
+        <v>1322</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI377" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ377" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK377" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="378">
@@ -45822,14 +46028,14 @@
         <v>1464</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1059</v>
+        <v>1327</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1059</v>
+        <v>1327</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F378" s="2"/>
       <c r="G378" t="s" s="2">
@@ -45842,25 +46048,23 @@
         <v>78</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K378" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>127</v>
+        <v>1328</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>268</v>
+        <v>1329</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O378" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>1330</v>
+      </c>
+      <c r="O378" s="2"/>
       <c r="P378" t="s" s="2">
-        <v>136</v>
+        <v>1331</v>
       </c>
       <c r="Q378" t="s" s="2">
         <v>78</v>
@@ -45909,7 +46113,7 @@
         <v>78</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>270</v>
+        <v>1327</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>76</v>
@@ -45921,7 +46125,7 @@
         <v>78</v>
       </c>
       <c r="AK378" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="379">
@@ -45929,10 +46133,10 @@
         <v>1464</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1060</v>
+        <v>1332</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1060</v>
+        <v>1332</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -45940,7 +46144,7 @@
       </c>
       <c r="F379" s="2"/>
       <c r="G379" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H379" t="s" s="2">
         <v>83</v>
@@ -45952,19 +46156,23 @@
         <v>78</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>1049</v>
+        <v>1445</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>1061</v>
+        <v>1334</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1062</v>
-      </c>
-      <c r="O379" s="2"/>
-      <c r="P379" s="2"/>
+        <v>1335</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>1336</v>
+      </c>
+      <c r="P379" t="s" s="2">
+        <v>1337</v>
+      </c>
       <c r="Q379" t="s" s="2">
         <v>78</v>
       </c>
@@ -45988,13 +46196,13 @@
         <v>78</v>
       </c>
       <c r="Y379" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z379" t="s" s="2">
-        <v>1052</v>
+        <v>78</v>
       </c>
       <c r="AA379" t="s" s="2">
-        <v>1053</v>
+        <v>78</v>
       </c>
       <c r="AB379" t="s" s="2">
         <v>78</v>
@@ -46012,16 +46220,16 @@
         <v>78</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>1060</v>
+        <v>1332</v>
       </c>
       <c r="AH379" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI379" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ379" t="s" s="2">
-        <v>78</v>
+        <v>1338</v>
       </c>
       <c r="AK379" t="s" s="2">
         <v>95</v>
@@ -46032,10 +46240,10 @@
         <v>1464</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1063</v>
+        <v>1341</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1063</v>
+        <v>1341</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -46043,7 +46251,7 @@
       </c>
       <c r="F380" s="2"/>
       <c r="G380" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H380" t="s" s="2">
         <v>83</v>
@@ -46058,16 +46266,20 @@
         <v>78</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>1064</v>
+        <v>1342</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>1065</v>
-      </c>
-      <c r="O380" s="2"/>
-      <c r="P380" s="2"/>
+        <v>1343</v>
+      </c>
+      <c r="O380" t="s" s="2">
+        <v>1344</v>
+      </c>
+      <c r="P380" t="s" s="2">
+        <v>1345</v>
+      </c>
       <c r="Q380" t="s" s="2">
         <v>78</v>
       </c>
@@ -46091,13 +46303,13 @@
         <v>78</v>
       </c>
       <c r="Y380" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z380" t="s" s="2">
-        <v>78</v>
+        <v>1346</v>
       </c>
       <c r="AA380" t="s" s="2">
-        <v>78</v>
+        <v>1347</v>
       </c>
       <c r="AB380" t="s" s="2">
         <v>78</v>
@@ -46115,16 +46327,16 @@
         <v>78</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>1063</v>
+        <v>1341</v>
       </c>
       <c r="AH380" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI380" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ380" t="s" s="2">
-        <v>78</v>
+        <v>1348</v>
       </c>
       <c r="AK380" t="s" s="2">
         <v>95</v>
@@ -46135,14 +46347,14 @@
         <v>1464</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1066</v>
+        <v>1349</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1066</v>
+        <v>1349</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
-        <v>78</v>
+        <v>1350</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" t="s" s="2">
@@ -46158,21 +46370,23 @@
         <v>78</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L381" t="s" s="2">
         <v>183</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>1067</v>
+        <v>1351</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>1068</v>
+        <v>1352</v>
       </c>
       <c r="O381" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="P381" s="2"/>
+        <v>1353</v>
+      </c>
+      <c r="P381" t="s" s="2">
+        <v>1354</v>
+      </c>
       <c r="Q381" t="s" s="2">
         <v>78</v>
       </c>
@@ -46196,13 +46410,13 @@
         <v>78</v>
       </c>
       <c r="Y381" t="s" s="2">
-        <v>188</v>
+        <v>449</v>
       </c>
       <c r="Z381" t="s" s="2">
-        <v>1070</v>
+        <v>1453</v>
       </c>
       <c r="AA381" t="s" s="2">
-        <v>1071</v>
+        <v>1454</v>
       </c>
       <c r="AB381" t="s" s="2">
         <v>78</v>
@@ -46220,7 +46434,7 @@
         <v>78</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>1066</v>
+        <v>1349</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>76</v>
@@ -46240,10 +46454,10 @@
         <v>1464</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1072</v>
+        <v>1356</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1072</v>
+        <v>1356</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -46254,7 +46468,7 @@
         <v>76</v>
       </c>
       <c r="H382" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I382" t="s" s="2">
         <v>78</v>
@@ -46263,19 +46477,23 @@
         <v>78</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>1073</v>
+        <v>1357</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>1074</v>
-      </c>
-      <c r="O382" s="2"/>
-      <c r="P382" s="2"/>
+        <v>1358</v>
+      </c>
+      <c r="O382" t="s" s="2">
+        <v>1359</v>
+      </c>
+      <c r="P382" t="s" s="2">
+        <v>1360</v>
+      </c>
       <c r="Q382" t="s" s="2">
         <v>78</v>
       </c>
@@ -46299,13 +46517,13 @@
         <v>78</v>
       </c>
       <c r="Y382" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z382" t="s" s="2">
-        <v>1075</v>
+        <v>78</v>
       </c>
       <c r="AA382" t="s" s="2">
-        <v>1076</v>
+        <v>78</v>
       </c>
       <c r="AB382" t="s" s="2">
         <v>78</v>
@@ -46323,13 +46541,13 @@
         <v>78</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>1072</v>
+        <v>1356</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI382" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ382" t="s" s="2">
         <v>78</v>
@@ -46343,10 +46561,10 @@
         <v>1464</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1077</v>
+        <v>1361</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1077</v>
+        <v>1361</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -46372,12 +46590,14 @@
         <v>183</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>1078</v>
+        <v>1362</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>1079</v>
-      </c>
-      <c r="O383" s="2"/>
+        <v>1363</v>
+      </c>
+      <c r="O383" t="s" s="2">
+        <v>1364</v>
+      </c>
       <c r="P383" s="2"/>
       <c r="Q383" t="s" s="2">
         <v>78</v>
@@ -46405,10 +46625,10 @@
         <v>188</v>
       </c>
       <c r="Z383" t="s" s="2">
-        <v>1079</v>
+        <v>515</v>
       </c>
       <c r="AA383" t="s" s="2">
-        <v>1080</v>
+        <v>516</v>
       </c>
       <c r="AB383" t="s" s="2">
         <v>78</v>
@@ -46426,7 +46646,7 @@
         <v>78</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>1077</v>
+        <v>1361</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>76</v>
@@ -46446,14 +46666,14 @@
         <v>1464</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1081</v>
+        <v>1365</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1081</v>
+        <v>1365</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="F384" s="2"/>
       <c r="G384" t="s" s="2">
@@ -46469,21 +46689,23 @@
         <v>78</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>1082</v>
+        <v>1366</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>1083</v>
+        <v>1367</v>
       </c>
       <c r="O384" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="P384" s="2"/>
+        <v>1368</v>
+      </c>
+      <c r="P384" t="s" s="2">
+        <v>1369</v>
+      </c>
       <c r="Q384" t="s" s="2">
         <v>78</v>
       </c>
@@ -46507,13 +46729,13 @@
         <v>78</v>
       </c>
       <c r="Y384" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z384" t="s" s="2">
-        <v>78</v>
+        <v>1370</v>
       </c>
       <c r="AA384" t="s" s="2">
-        <v>78</v>
+        <v>1371</v>
       </c>
       <c r="AB384" t="s" s="2">
         <v>78</v>
@@ -46531,7 +46753,7 @@
         <v>78</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>1081</v>
+        <v>1365</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>76</v>
@@ -46551,10 +46773,10 @@
         <v>1464</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1085</v>
+        <v>1372</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1085</v>
+        <v>1372</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -46565,7 +46787,7 @@
         <v>76</v>
       </c>
       <c r="H385" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I385" t="s" s="2">
         <v>78</v>
@@ -46574,18 +46796,20 @@
         <v>78</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>1086</v>
+        <v>1373</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>1087</v>
+        <v>1374</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>1088</v>
-      </c>
-      <c r="O385" s="2"/>
+        <v>1375</v>
+      </c>
+      <c r="O385" t="s" s="2">
+        <v>1376</v>
+      </c>
       <c r="P385" s="2"/>
       <c r="Q385" t="s" s="2">
         <v>78</v>
@@ -46634,13 +46858,13 @@
         <v>78</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>1085</v>
+        <v>1372</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI385" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ385" t="s" s="2">
         <v>78</v>
@@ -46654,21 +46878,21 @@
         <v>1464</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1089</v>
+        <v>1377</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1089</v>
+        <v>1377</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
-        <v>1090</v>
+        <v>78</v>
       </c>
       <c r="F386" s="2"/>
       <c r="G386" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H386" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I386" t="s" s="2">
         <v>78</v>
@@ -46680,15 +46904,17 @@
         <v>78</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>1091</v>
+        <v>1378</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>1092</v>
+        <v>1379</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="O386" s="2"/>
+        <v>1380</v>
+      </c>
+      <c r="O386" t="s" s="2">
+        <v>1381</v>
+      </c>
       <c r="P386" s="2"/>
       <c r="Q386" t="s" s="2">
         <v>78</v>
@@ -46737,13 +46963,13 @@
         <v>78</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>1089</v>
+        <v>1377</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI386" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ386" t="s" s="2">
         <v>78</v>
@@ -46757,10 +46983,10 @@
         <v>1464</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1094</v>
+        <v>1382</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1094</v>
+        <v>1382</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -46780,19 +47006,23 @@
         <v>78</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L387" t="s" s="2">
         <v>254</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>1095</v>
+        <v>1383</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>1096</v>
-      </c>
-      <c r="O387" s="2"/>
-      <c r="P387" s="2"/>
+        <v>1384</v>
+      </c>
+      <c r="O387" t="s" s="2">
+        <v>1385</v>
+      </c>
+      <c r="P387" t="s" s="2">
+        <v>1386</v>
+      </c>
       <c r="Q387" t="s" s="2">
         <v>78</v>
       </c>
@@ -46840,7 +47070,7 @@
         <v>78</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>1094</v>
+        <v>1382</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>76</v>
@@ -46852,7 +47082,7 @@
         <v>78</v>
       </c>
       <c r="AK387" t="s" s="2">
-        <v>95</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="388">
@@ -46860,10 +47090,10 @@
         <v>1464</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1097</v>
+        <v>1388</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1097</v>
+        <v>1388</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -46963,10 +47193,10 @@
         <v>1464</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1098</v>
+        <v>1389</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1098</v>
+        <v>1389</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -47068,10 +47298,10 @@
         <v>1464</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1099</v>
+        <v>1390</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1099</v>
+        <v>1390</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -47175,10 +47405,10 @@
         <v>1464</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1100</v>
+        <v>1391</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1100</v>
+        <v>1391</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -47189,7 +47419,7 @@
         <v>76</v>
       </c>
       <c r="H391" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I391" t="s" s="2">
         <v>78</v>
@@ -47198,20 +47428,18 @@
         <v>78</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>183</v>
+        <v>390</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>1101</v>
+        <v>1392</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>1102</v>
-      </c>
-      <c r="O391" t="s" s="2">
-        <v>1103</v>
-      </c>
+        <v>1393</v>
+      </c>
+      <c r="O391" s="2"/>
       <c r="P391" s="2"/>
       <c r="Q391" t="s" s="2">
         <v>78</v>
@@ -47236,13 +47464,13 @@
         <v>78</v>
       </c>
       <c r="Y391" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z391" t="s" s="2">
-        <v>1102</v>
+        <v>78</v>
       </c>
       <c r="AA391" t="s" s="2">
-        <v>1104</v>
+        <v>78</v>
       </c>
       <c r="AB391" t="s" s="2">
         <v>78</v>
@@ -47260,16 +47488,16 @@
         <v>78</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>1100</v>
+        <v>1391</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ391" t="s" s="2">
-        <v>78</v>
+        <v>1394</v>
       </c>
       <c r="AK391" t="s" s="2">
         <v>95</v>
@@ -47280,10 +47508,10 @@
         <v>1464</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1105</v>
+        <v>1395</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1105</v>
+        <v>1395</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -47306,13 +47534,13 @@
         <v>78</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>211</v>
+        <v>390</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>1106</v>
+        <v>1396</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>1107</v>
+        <v>1397</v>
       </c>
       <c r="O392" s="2"/>
       <c r="P392" s="2"/>
@@ -47363,7 +47591,7 @@
         <v>78</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>1105</v>
+        <v>1395</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>76</v>
@@ -47372,7 +47600,7 @@
         <v>83</v>
       </c>
       <c r="AJ392" t="s" s="2">
-        <v>78</v>
+        <v>1394</v>
       </c>
       <c r="AK392" t="s" s="2">
         <v>95</v>
@@ -47383,10 +47611,10 @@
         <v>1464</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1108</v>
+        <v>1398</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1108</v>
+        <v>1398</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -47406,19 +47634,23 @@
         <v>78</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>1109</v>
+        <v>183</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>1110</v>
+        <v>1399</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="O393" s="2"/>
-      <c r="P393" s="2"/>
+        <v>1400</v>
+      </c>
+      <c r="O393" t="s" s="2">
+        <v>1401</v>
+      </c>
+      <c r="P393" t="s" s="2">
+        <v>1402</v>
+      </c>
       <c r="Q393" t="s" s="2">
         <v>78</v>
       </c>
@@ -47442,13 +47674,13 @@
         <v>78</v>
       </c>
       <c r="Y393" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z393" t="s" s="2">
-        <v>78</v>
+        <v>1403</v>
       </c>
       <c r="AA393" t="s" s="2">
-        <v>78</v>
+        <v>1404</v>
       </c>
       <c r="AB393" t="s" s="2">
         <v>78</v>
@@ -47466,7 +47698,7 @@
         <v>78</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1108</v>
+        <v>1398</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>76</v>
@@ -47486,10 +47718,10 @@
         <v>1464</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1112</v>
+        <v>1405</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1112</v>
+        <v>1405</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -47509,19 +47741,23 @@
         <v>78</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>1113</v>
+        <v>183</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1114</v>
+        <v>1406</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1115</v>
-      </c>
-      <c r="O394" s="2"/>
-      <c r="P394" s="2"/>
+        <v>1407</v>
+      </c>
+      <c r="O394" t="s" s="2">
+        <v>1408</v>
+      </c>
+      <c r="P394" t="s" s="2">
+        <v>1409</v>
+      </c>
       <c r="Q394" t="s" s="2">
         <v>78</v>
       </c>
@@ -47545,13 +47781,13 @@
         <v>78</v>
       </c>
       <c r="Y394" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z394" t="s" s="2">
-        <v>78</v>
+        <v>1410</v>
       </c>
       <c r="AA394" t="s" s="2">
-        <v>78</v>
+        <v>1411</v>
       </c>
       <c r="AB394" t="s" s="2">
         <v>78</v>
@@ -47569,7 +47805,7 @@
         <v>78</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>1112</v>
+        <v>1405</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>76</v>
@@ -47589,10 +47825,10 @@
         <v>1464</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1116</v>
+        <v>1412</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1116</v>
+        <v>1412</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -47600,7 +47836,7 @@
       </c>
       <c r="F395" s="2"/>
       <c r="G395" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H395" t="s" s="2">
         <v>83</v>
@@ -47615,18 +47851,18 @@
         <v>78</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>211</v>
+        <v>1413</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1117</v>
+        <v>1414</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>1118</v>
-      </c>
-      <c r="O395" t="s" s="2">
-        <v>1119</v>
-      </c>
-      <c r="P395" s="2"/>
+        <v>1415</v>
+      </c>
+      <c r="O395" s="2"/>
+      <c r="P395" t="s" s="2">
+        <v>1416</v>
+      </c>
       <c r="Q395" t="s" s="2">
         <v>78</v>
       </c>
@@ -47674,7 +47910,7 @@
         <v>78</v>
       </c>
       <c r="AG395" t="s" s="2">
-        <v>1116</v>
+        <v>1412</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>76</v>
@@ -47694,10 +47930,10 @@
         <v>1464</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1120</v>
+        <v>1417</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1120</v>
+        <v>1417</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -47720,17 +47956,15 @@
         <v>78</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>1121</v>
+        <v>192</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>1122</v>
+        <v>1418</v>
       </c>
       <c r="N396" t="s" s="2">
-        <v>1123</v>
-      </c>
-      <c r="O396" t="s" s="2">
-        <v>1124</v>
-      </c>
+        <v>1419</v>
+      </c>
+      <c r="O396" s="2"/>
       <c r="P396" s="2"/>
       <c r="Q396" t="s" s="2">
         <v>78</v>
@@ -47779,7 +48013,7 @@
         <v>78</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>1120</v>
+        <v>1417</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>76</v>
@@ -47799,14 +48033,14 @@
         <v>1464</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1125</v>
+        <v>1420</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1125</v>
+        <v>1420</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
-        <v>1126</v>
+        <v>78</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" t="s" s="2">
@@ -47825,16 +48059,16 @@
         <v>84</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>183</v>
+        <v>1421</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>1127</v>
+        <v>1422</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>1128</v>
+        <v>1423</v>
       </c>
       <c r="O397" t="s" s="2">
-        <v>1129</v>
+        <v>1424</v>
       </c>
       <c r="P397" s="2"/>
       <c r="Q397" t="s" s="2">
@@ -47860,13 +48094,13 @@
         <v>78</v>
       </c>
       <c r="Y397" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z397" t="s" s="2">
-        <v>1130</v>
+        <v>78</v>
       </c>
       <c r="AA397" t="s" s="2">
-        <v>1131</v>
+        <v>78</v>
       </c>
       <c r="AB397" t="s" s="2">
         <v>78</v>
@@ -47884,7 +48118,7 @@
         <v>78</v>
       </c>
       <c r="AG397" t="s" s="2">
-        <v>1125</v>
+        <v>1420</v>
       </c>
       <c r="AH397" t="s" s="2">
         <v>76</v>
@@ -47904,14 +48138,14 @@
         <v>1464</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1132</v>
+        <v>1425</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1132</v>
+        <v>1425</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
-        <v>1126</v>
+        <v>78</v>
       </c>
       <c r="F398" s="2"/>
       <c r="G398" t="s" s="2">
@@ -47930,16 +48164,16 @@
         <v>84</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>1133</v>
+        <v>1426</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1134</v>
+        <v>1427</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>1128</v>
+        <v>1428</v>
       </c>
       <c r="O398" t="s" s="2">
-        <v>1129</v>
+        <v>1429</v>
       </c>
       <c r="P398" s="2"/>
       <c r="Q398" t="s" s="2">
@@ -47989,7 +48223,7 @@
         <v>78</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>1132</v>
+        <v>1425</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>76</v>
@@ -48009,10 +48243,10 @@
         <v>1464</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1135</v>
+        <v>1430</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1135</v>
+        <v>1430</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -48038,13 +48272,17 @@
         <v>254</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1136</v>
+        <v>1431</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1137</v>
-      </c>
-      <c r="O399" s="2"/>
-      <c r="P399" s="2"/>
+        <v>1432</v>
+      </c>
+      <c r="O399" t="s" s="2">
+        <v>1433</v>
+      </c>
+      <c r="P399" t="s" s="2">
+        <v>1434</v>
+      </c>
       <c r="Q399" t="s" s="2">
         <v>78</v>
       </c>
@@ -48092,7 +48330,7 @@
         <v>78</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1135</v>
+        <v>1430</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>76</v>
@@ -48112,10 +48350,10 @@
         <v>1464</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1138</v>
+        <v>1435</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1138</v>
+        <v>1435</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -48215,10 +48453,10 @@
         <v>1464</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1139</v>
+        <v>1436</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1139</v>
+        <v>1436</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -48320,10 +48558,10 @@
         <v>1464</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1140</v>
+        <v>1437</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1140</v>
+        <v>1437</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -48427,14 +48665,14 @@
         <v>1464</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1141</v>
+        <v>1438</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1141</v>
+        <v>1438</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
-        <v>1142</v>
+        <v>78</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" t="s" s="2">
@@ -48453,18 +48691,20 @@
         <v>84</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>1143</v>
+        <v>183</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1144</v>
+        <v>1439</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1145</v>
+        <v>1440</v>
       </c>
       <c r="O403" t="s" s="2">
-        <v>1129</v>
-      </c>
-      <c r="P403" s="2"/>
+        <v>1441</v>
+      </c>
+      <c r="P403" t="s" s="2">
+        <v>1296</v>
+      </c>
       <c r="Q403" t="s" s="2">
         <v>78</v>
       </c>
@@ -48488,13 +48728,13 @@
         <v>78</v>
       </c>
       <c r="Y403" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z403" t="s" s="2">
-        <v>78</v>
+        <v>1442</v>
       </c>
       <c r="AA403" t="s" s="2">
-        <v>78</v>
+        <v>1443</v>
       </c>
       <c r="AB403" t="s" s="2">
         <v>78</v>
@@ -48512,7 +48752,7 @@
         <v>78</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1141</v>
+        <v>1438</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>83</v>
@@ -48532,10 +48772,10 @@
         <v>1464</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1146</v>
+        <v>1444</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1146</v>
+        <v>1444</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -48555,19 +48795,23 @@
         <v>78</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>183</v>
+        <v>1445</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1147</v>
+        <v>1446</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1148</v>
-      </c>
-      <c r="O404" s="2"/>
-      <c r="P404" s="2"/>
+        <v>1335</v>
+      </c>
+      <c r="O404" t="s" s="2">
+        <v>1447</v>
+      </c>
+      <c r="P404" t="s" s="2">
+        <v>1337</v>
+      </c>
       <c r="Q404" t="s" s="2">
         <v>78</v>
       </c>
@@ -48591,13 +48835,13 @@
         <v>78</v>
       </c>
       <c r="Y404" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z404" t="s" s="2">
-        <v>1149</v>
+        <v>78</v>
       </c>
       <c r="AA404" t="s" s="2">
-        <v>1150</v>
+        <v>78</v>
       </c>
       <c r="AB404" t="s" s="2">
         <v>78</v>
@@ -48615,7 +48859,7 @@
         <v>78</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1146</v>
+        <v>1444</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>76</v>
@@ -48635,10 +48879,10 @@
         <v>1464</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1151</v>
+        <v>1448</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1151</v>
+        <v>1448</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -48661,16 +48905,20 @@
         <v>78</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>1152</v>
+        <v>183</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1153</v>
+        <v>1449</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O405" s="2"/>
-      <c r="P405" s="2"/>
+        <v>1450</v>
+      </c>
+      <c r="O405" t="s" s="2">
+        <v>1451</v>
+      </c>
+      <c r="P405" t="s" s="2">
+        <v>1345</v>
+      </c>
       <c r="Q405" t="s" s="2">
         <v>78</v>
       </c>
@@ -48694,13 +48942,13 @@
         <v>78</v>
       </c>
       <c r="Y405" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z405" t="s" s="2">
-        <v>78</v>
+        <v>1346</v>
       </c>
       <c r="AA405" t="s" s="2">
-        <v>78</v>
+        <v>1347</v>
       </c>
       <c r="AB405" t="s" s="2">
         <v>78</v>
@@ -48718,7 +48966,7 @@
         <v>78</v>
       </c>
       <c r="AG405" t="s" s="2">
-        <v>1151</v>
+        <v>1448</v>
       </c>
       <c r="AH405" t="s" s="2">
         <v>76</v>
@@ -48727,7 +48975,7 @@
         <v>83</v>
       </c>
       <c r="AJ405" t="s" s="2">
-        <v>78</v>
+        <v>1348</v>
       </c>
       <c r="AK405" t="s" s="2">
         <v>95</v>
@@ -48738,14 +48986,14 @@
         <v>1464</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1155</v>
+        <v>1452</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1155</v>
+        <v>1452</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
-        <v>78</v>
+        <v>1350</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" t="s" s="2">
@@ -48764,18 +49012,20 @@
         <v>78</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>1156</v>
+        <v>183</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>1157</v>
+        <v>1351</v>
       </c>
       <c r="N406" t="s" s="2">
-        <v>1158</v>
+        <v>1352</v>
       </c>
       <c r="O406" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="P406" s="2"/>
+        <v>1353</v>
+      </c>
+      <c r="P406" t="s" s="2">
+        <v>1354</v>
+      </c>
       <c r="Q406" t="s" s="2">
         <v>78</v>
       </c>
@@ -48799,13 +49049,13 @@
         <v>78</v>
       </c>
       <c r="Y406" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z406" t="s" s="2">
-        <v>78</v>
+        <v>1453</v>
       </c>
       <c r="AA406" t="s" s="2">
-        <v>78</v>
+        <v>1454</v>
       </c>
       <c r="AB406" t="s" s="2">
         <v>78</v>
@@ -48823,7 +49073,7 @@
         <v>78</v>
       </c>
       <c r="AG406" t="s" s="2">
-        <v>1155</v>
+        <v>1452</v>
       </c>
       <c r="AH406" t="s" s="2">
         <v>76</v>
@@ -48843,10 +49093,10 @@
         <v>1464</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1160</v>
+        <v>1455</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1160</v>
+        <v>1455</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -48857,7 +49107,7 @@
         <v>76</v>
       </c>
       <c r="H407" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I407" t="s" s="2">
         <v>78</v>
@@ -48869,18 +49119,20 @@
         <v>78</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>1161</v>
+        <v>1456</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>1162</v>
+        <v>1457</v>
       </c>
       <c r="O407" t="s" s="2">
-        <v>1163</v>
-      </c>
-      <c r="P407" s="2"/>
+        <v>1385</v>
+      </c>
+      <c r="P407" t="s" s="2">
+        <v>1386</v>
+      </c>
       <c r="Q407" t="s" s="2">
         <v>78</v>
       </c>
@@ -48928,13 +49180,13 @@
         <v>78</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>1160</v>
+        <v>1455</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI407" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ407" t="s" s="2">
         <v>78</v>
@@ -48945,24 +49197,24 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1164</v>
+        <v>1012</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1164</v>
+        <v>1012</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
-        <v>78</v>
+        <v>1014</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H408" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I408" t="s" s="2">
         <v>78</v>
@@ -48974,13 +49226,13 @@
         <v>78</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>260</v>
+        <v>1015</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>261</v>
+        <v>1016</v>
       </c>
       <c r="O408" s="2"/>
       <c r="P408" s="2"/>
@@ -49031,13 +49283,13 @@
         <v>78</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>262</v>
+        <v>1012</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI408" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ408" t="s" s="2">
         <v>78</v>
@@ -49048,24 +49300,24 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1165</v>
+        <v>1017</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1165</v>
+        <v>1017</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F409" s="2"/>
       <c r="G409" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H409" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I409" t="s" s="2">
         <v>78</v>
@@ -49074,19 +49326,19 @@
         <v>78</v>
       </c>
       <c r="K409" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="O409" t="s" s="2">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="P409" s="2"/>
       <c r="Q409" t="s" s="2">
@@ -49136,66 +49388,62 @@
         <v>78</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI409" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ409" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK409" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1166</v>
+        <v>1018</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1166</v>
+        <v>1018</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F410" s="2"/>
       <c r="G410" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H410" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I410" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J410" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K410" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O410" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P410" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="O410" s="2"/>
+      <c r="P410" s="2"/>
       <c r="Q410" t="s" s="2">
         <v>78</v>
       </c>
@@ -49243,30 +49491,30 @@
         <v>78</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI410" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ410" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK410" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1167</v>
+        <v>1019</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1167</v>
+        <v>1019</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -49283,21 +49531,23 @@
         <v>78</v>
       </c>
       <c r="J411" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1168</v>
+        <v>98</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1169</v>
-      </c>
-      <c r="O411" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O411" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="P411" s="2"/>
       <c r="Q411" t="s" s="2">
         <v>78</v>
@@ -49346,7 +49596,7 @@
         <v>78</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>1167</v>
+        <v>101</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>76</v>
@@ -49363,13 +49613,13 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1170</v>
+        <v>1020</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1170</v>
+        <v>1020</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -49392,15 +49642,17 @@
         <v>78</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1171</v>
+        <v>103</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>1172</v>
+        <v>104</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>1173</v>
-      </c>
-      <c r="O412" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="O412" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="P412" s="2"/>
       <c r="Q412" t="s" s="2">
         <v>78</v>
@@ -49425,13 +49677,13 @@
         <v>78</v>
       </c>
       <c r="Y412" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z412" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AA412" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AB412" t="s" s="2">
         <v>78</v>
@@ -49449,7 +49701,7 @@
         <v>78</v>
       </c>
       <c r="AG412" t="s" s="2">
-        <v>1170</v>
+        <v>110</v>
       </c>
       <c r="AH412" t="s" s="2">
         <v>76</v>
@@ -49466,17 +49718,17 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1174</v>
+        <v>1021</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1174</v>
+        <v>1021</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" t="s" s="2">
@@ -49495,15 +49747,17 @@
         <v>78</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>1175</v>
+        <v>114</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>1176</v>
-      </c>
-      <c r="O413" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O413" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="P413" s="2"/>
       <c r="Q413" t="s" s="2">
         <v>78</v>
@@ -49528,13 +49782,13 @@
         <v>78</v>
       </c>
       <c r="Y413" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z413" t="s" s="2">
-        <v>1177</v>
+        <v>78</v>
       </c>
       <c r="AA413" t="s" s="2">
-        <v>1178</v>
+        <v>78</v>
       </c>
       <c r="AB413" t="s" s="2">
         <v>78</v>
@@ -49552,7 +49806,7 @@
         <v>78</v>
       </c>
       <c r="AG413" t="s" s="2">
-        <v>1174</v>
+        <v>117</v>
       </c>
       <c r="AH413" t="s" s="2">
         <v>76</v>
@@ -49569,24 +49823,24 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1179</v>
+        <v>1022</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1179</v>
+        <v>1022</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H414" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I414" t="s" s="2">
         <v>78</v>
@@ -49598,15 +49852,17 @@
         <v>78</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>1180</v>
+        <v>121</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>1181</v>
-      </c>
-      <c r="O414" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="O414" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P414" s="2"/>
       <c r="Q414" t="s" s="2">
         <v>78</v>
@@ -49631,13 +49887,13 @@
         <v>78</v>
       </c>
       <c r="Y414" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z414" t="s" s="2">
-        <v>1182</v>
+        <v>78</v>
       </c>
       <c r="AA414" t="s" s="2">
-        <v>1183</v>
+        <v>78</v>
       </c>
       <c r="AB414" t="s" s="2">
         <v>78</v>
@@ -49655,34 +49911,34 @@
         <v>78</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>1179</v>
+        <v>124</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI414" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ414" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK414" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1184</v>
+        <v>1023</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1184</v>
+        <v>1023</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" t="s" s="2">
@@ -49701,20 +49957,18 @@
         <v>78</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1185</v>
+        <v>128</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1186</v>
+        <v>129</v>
       </c>
       <c r="O415" t="s" s="2">
-        <v>1187</v>
-      </c>
-      <c r="P415" t="s" s="2">
-        <v>1188</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P415" s="2"/>
       <c r="Q415" t="s" s="2">
         <v>78</v>
       </c>
@@ -49738,13 +49992,13 @@
         <v>78</v>
       </c>
       <c r="Y415" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z415" t="s" s="2">
-        <v>1189</v>
+        <v>78</v>
       </c>
       <c r="AA415" t="s" s="2">
-        <v>1190</v>
+        <v>78</v>
       </c>
       <c r="AB415" t="s" s="2">
         <v>78</v>
@@ -49762,7 +50016,7 @@
         <v>78</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1184</v>
+        <v>131</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>76</v>
@@ -49774,22 +50028,22 @@
         <v>78</v>
       </c>
       <c r="AK415" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1191</v>
+        <v>1027</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1191</v>
+        <v>1027</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" t="s" s="2">
@@ -49802,22 +50056,26 @@
         <v>78</v>
       </c>
       <c r="J416" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K416" t="s" s="2">
         <v>78</v>
       </c>
       <c r="L416" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1192</v>
+        <v>134</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1193</v>
-      </c>
-      <c r="O416" s="2"/>
-      <c r="P416" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O416" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P416" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q416" t="s" s="2">
         <v>78</v>
       </c>
@@ -49841,13 +50099,13 @@
         <v>78</v>
       </c>
       <c r="Y416" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z416" t="s" s="2">
-        <v>1194</v>
+        <v>78</v>
       </c>
       <c r="AA416" t="s" s="2">
-        <v>1195</v>
+        <v>78</v>
       </c>
       <c r="AB416" t="s" s="2">
         <v>78</v>
@@ -49865,7 +50123,7 @@
         <v>78</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>1191</v>
+        <v>137</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>76</v>
@@ -49877,18 +50135,18 @@
         <v>78</v>
       </c>
       <c r="AK416" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1196</v>
+        <v>1028</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1196</v>
+        <v>1028</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -49908,16 +50166,16 @@
         <v>78</v>
       </c>
       <c r="K417" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1197</v>
+        <v>1029</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>1198</v>
+        <v>1030</v>
       </c>
       <c r="O417" s="2"/>
       <c r="P417" s="2"/>
@@ -49944,13 +50202,13 @@
         <v>78</v>
       </c>
       <c r="Y417" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z417" t="s" s="2">
-        <v>1199</v>
+        <v>78</v>
       </c>
       <c r="AA417" t="s" s="2">
-        <v>1200</v>
+        <v>78</v>
       </c>
       <c r="AB417" t="s" s="2">
         <v>78</v>
@@ -49968,7 +50226,7 @@
         <v>78</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>1196</v>
+        <v>1028</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>76</v>
@@ -49985,13 +50243,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1201</v>
+        <v>1031</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1201</v>
+        <v>1031</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -49999,7 +50257,7 @@
       </c>
       <c r="F418" s="2"/>
       <c r="G418" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H418" t="s" s="2">
         <v>83</v>
@@ -50008,21 +50266,23 @@
         <v>78</v>
       </c>
       <c r="J418" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K418" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>1171</v>
+        <v>103</v>
       </c>
       <c r="M418" t="s" s="2">
-        <v>1202</v>
+        <v>1032</v>
       </c>
       <c r="N418" t="s" s="2">
-        <v>1203</v>
-      </c>
-      <c r="O418" s="2"/>
+        <v>1033</v>
+      </c>
+      <c r="O418" t="s" s="2">
+        <v>1034</v>
+      </c>
       <c r="P418" s="2"/>
       <c r="Q418" t="s" s="2">
         <v>78</v>
@@ -50047,13 +50307,13 @@
         <v>78</v>
       </c>
       <c r="Y418" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z418" t="s" s="2">
-        <v>78</v>
+        <v>1035</v>
       </c>
       <c r="AA418" t="s" s="2">
-        <v>78</v>
+        <v>1036</v>
       </c>
       <c r="AB418" t="s" s="2">
         <v>78</v>
@@ -50071,10 +50331,10 @@
         <v>78</v>
       </c>
       <c r="AG418" t="s" s="2">
-        <v>1201</v>
+        <v>1031</v>
       </c>
       <c r="AH418" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI418" t="s" s="2">
         <v>83</v>
@@ -50088,13 +50348,13 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1204</v>
+        <v>1037</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1204</v>
+        <v>1037</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -50105,7 +50365,7 @@
         <v>76</v>
       </c>
       <c r="H419" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I419" t="s" s="2">
         <v>78</v>
@@ -50117,15 +50377,17 @@
         <v>78</v>
       </c>
       <c r="L419" t="s" s="2">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>1205</v>
+        <v>1038</v>
       </c>
       <c r="N419" t="s" s="2">
-        <v>1206</v>
-      </c>
-      <c r="O419" s="2"/>
+        <v>1039</v>
+      </c>
+      <c r="O419" t="s" s="2">
+        <v>1040</v>
+      </c>
       <c r="P419" s="2"/>
       <c r="Q419" t="s" s="2">
         <v>78</v>
@@ -50150,13 +50412,13 @@
         <v>78</v>
       </c>
       <c r="Y419" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z419" t="s" s="2">
-        <v>1207</v>
+        <v>78</v>
       </c>
       <c r="AA419" t="s" s="2">
-        <v>1208</v>
+        <v>78</v>
       </c>
       <c r="AB419" t="s" s="2">
         <v>78</v>
@@ -50174,13 +50436,13 @@
         <v>78</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>1204</v>
+        <v>1037</v>
       </c>
       <c r="AH419" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI419" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ419" t="s" s="2">
         <v>78</v>
@@ -50191,13 +50453,13 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1209</v>
+        <v>1041</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1209</v>
+        <v>1041</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -50208,7 +50470,7 @@
         <v>76</v>
       </c>
       <c r="H420" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I420" t="s" s="2">
         <v>78</v>
@@ -50220,17 +50482,15 @@
         <v>78</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="M420" t="s" s="2">
-        <v>1210</v>
+        <v>260</v>
       </c>
       <c r="N420" t="s" s="2">
-        <v>1211</v>
-      </c>
-      <c r="O420" t="s" s="2">
-        <v>1212</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O420" s="2"/>
       <c r="P420" s="2"/>
       <c r="Q420" t="s" s="2">
         <v>78</v>
@@ -50279,41 +50539,41 @@
         <v>78</v>
       </c>
       <c r="AG420" t="s" s="2">
-        <v>1209</v>
+        <v>262</v>
       </c>
       <c r="AH420" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI420" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ420" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK420" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1213</v>
+        <v>1042</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1213</v>
+        <v>1042</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F421" s="2"/>
       <c r="G421" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H421" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I421" t="s" s="2">
         <v>78</v>
@@ -50325,15 +50585,17 @@
         <v>78</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="N421" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O421" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O421" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P421" s="2"/>
       <c r="Q421" t="s" s="2">
         <v>78</v>
@@ -50382,34 +50644,34 @@
         <v>78</v>
       </c>
       <c r="AG421" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AH421" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI421" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ421" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK421" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1214</v>
+        <v>1043</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1214</v>
+        <v>1043</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="F422" s="2"/>
       <c r="G422" t="s" s="2">
@@ -50422,24 +50684,26 @@
         <v>78</v>
       </c>
       <c r="J422" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K422" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L422" t="s" s="2">
         <v>127</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O422" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="P422" s="2"/>
+      <c r="P422" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q422" t="s" s="2">
         <v>78</v>
       </c>
@@ -50487,7 +50751,7 @@
         <v>78</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AH422" t="s" s="2">
         <v>76</v>
@@ -50504,49 +50768,45 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1215</v>
+        <v>1044</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1215</v>
+        <v>1044</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F423" s="2"/>
       <c r="G423" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H423" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I423" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J423" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>268</v>
+        <v>1032</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O423" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P423" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="O423" s="2"/>
+      <c r="P423" s="2"/>
       <c r="Q423" t="s" s="2">
         <v>78</v>
       </c>
@@ -50570,13 +50830,13 @@
         <v>78</v>
       </c>
       <c r="Y423" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z423" t="s" s="2">
-        <v>78</v>
+        <v>1035</v>
       </c>
       <c r="AA423" t="s" s="2">
-        <v>78</v>
+        <v>1036</v>
       </c>
       <c r="AB423" t="s" s="2">
         <v>78</v>
@@ -50594,30 +50854,30 @@
         <v>78</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>270</v>
+        <v>1044</v>
       </c>
       <c r="AH423" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI423" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ423" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1216</v>
+        <v>1045</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1216</v>
+        <v>1045</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -50640,13 +50900,13 @@
         <v>78</v>
       </c>
       <c r="L424" t="s" s="2">
-        <v>369</v>
+        <v>211</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>1217</v>
+        <v>1046</v>
       </c>
       <c r="N424" t="s" s="2">
-        <v>1218</v>
+        <v>1047</v>
       </c>
       <c r="O424" s="2"/>
       <c r="P424" s="2"/>
@@ -50697,7 +50957,7 @@
         <v>78</v>
       </c>
       <c r="AG424" t="s" s="2">
-        <v>1216</v>
+        <v>1045</v>
       </c>
       <c r="AH424" t="s" s="2">
         <v>83</v>
@@ -50714,13 +50974,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1219</v>
+        <v>1048</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1219</v>
+        <v>1048</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -50728,7 +50988,7 @@
       </c>
       <c r="F425" s="2"/>
       <c r="G425" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H425" t="s" s="2">
         <v>83</v>
@@ -50740,20 +51000,18 @@
         <v>78</v>
       </c>
       <c r="K425" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>103</v>
+        <v>1049</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1220</v>
+        <v>1050</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>1221</v>
-      </c>
-      <c r="O425" t="s" s="2">
-        <v>1222</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="O425" s="2"/>
       <c r="P425" s="2"/>
       <c r="Q425" t="s" s="2">
         <v>78</v>
@@ -50778,13 +51036,13 @@
         <v>78</v>
       </c>
       <c r="Y425" t="s" s="2">
-        <v>173</v>
+        <v>449</v>
       </c>
       <c r="Z425" t="s" s="2">
-        <v>1223</v>
+        <v>1052</v>
       </c>
       <c r="AA425" t="s" s="2">
-        <v>1224</v>
+        <v>1053</v>
       </c>
       <c r="AB425" t="s" s="2">
         <v>78</v>
@@ -50802,10 +51060,10 @@
         <v>78</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>1219</v>
+        <v>1048</v>
       </c>
       <c r="AH425" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI425" t="s" s="2">
         <v>83</v>
@@ -50819,13 +51077,13 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1225</v>
+        <v>1054</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1225</v>
+        <v>1054</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -50836,7 +51094,7 @@
         <v>76</v>
       </c>
       <c r="H426" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I426" t="s" s="2">
         <v>78</v>
@@ -50848,17 +51106,15 @@
         <v>78</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1226</v>
+        <v>1055</v>
       </c>
       <c r="N426" t="s" s="2">
-        <v>1227</v>
-      </c>
-      <c r="O426" t="s" s="2">
-        <v>1228</v>
-      </c>
+        <v>1056</v>
+      </c>
+      <c r="O426" s="2"/>
       <c r="P426" s="2"/>
       <c r="Q426" t="s" s="2">
         <v>78</v>
@@ -50883,13 +51139,13 @@
         <v>78</v>
       </c>
       <c r="Y426" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z426" t="s" s="2">
-        <v>1229</v>
+        <v>78</v>
       </c>
       <c r="AA426" t="s" s="2">
-        <v>1230</v>
+        <v>78</v>
       </c>
       <c r="AB426" t="s" s="2">
         <v>78</v>
@@ -50907,13 +51163,13 @@
         <v>78</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>1225</v>
+        <v>1054</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI426" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ426" t="s" s="2">
         <v>78</v>
@@ -50924,13 +51180,13 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1231</v>
+        <v>1057</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1231</v>
+        <v>1057</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -50953,13 +51209,13 @@
         <v>78</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>1232</v>
+        <v>260</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>1233</v>
+        <v>261</v>
       </c>
       <c r="O427" s="2"/>
       <c r="P427" s="2"/>
@@ -51010,7 +51266,7 @@
         <v>78</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>1231</v>
+        <v>262</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>76</v>
@@ -51022,29 +51278,29 @@
         <v>78</v>
       </c>
       <c r="AK427" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1234</v>
+        <v>1058</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1234</v>
+        <v>1058</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F428" s="2"/>
       <c r="G428" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H428" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I428" t="s" s="2">
         <v>78</v>
@@ -51056,15 +51312,17 @@
         <v>78</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>476</v>
+        <v>127</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>1235</v>
+        <v>128</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>1236</v>
-      </c>
-      <c r="O428" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O428" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P428" s="2"/>
       <c r="Q428" t="s" s="2">
         <v>78</v>
@@ -51113,64 +51371,66 @@
         <v>78</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>1234</v>
+        <v>265</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI428" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ428" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK428" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1237</v>
+        <v>1059</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1237</v>
+        <v>1059</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="F429" s="2"/>
       <c r="G429" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H429" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I429" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J429" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K429" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1238</v>
+        <v>268</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>1239</v>
+        <v>269</v>
       </c>
       <c r="O429" t="s" s="2">
-        <v>1240</v>
-      </c>
-      <c r="P429" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="P429" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q429" t="s" s="2">
         <v>78</v>
       </c>
@@ -51218,18 +51478,5327 @@
         <v>78</v>
       </c>
       <c r="AG429" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ429" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK429" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B430" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="C430" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="D430" s="2"/>
+      <c r="E430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F430" s="2"/>
+      <c r="G430" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H430" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L430" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="M430" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="N430" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="O430" s="2"/>
+      <c r="P430" s="2"/>
+      <c r="Q430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R430" s="2"/>
+      <c r="S430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y430" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z430" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="AA430" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="AB430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG430" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="AH430" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI430" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK430" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B431" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="C431" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="D431" s="2"/>
+      <c r="E431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F431" s="2"/>
+      <c r="G431" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H431" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L431" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M431" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="N431" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="O431" s="2"/>
+      <c r="P431" s="2"/>
+      <c r="Q431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R431" s="2"/>
+      <c r="S431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG431" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="AH431" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI431" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK431" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B432" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="C432" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="D432" s="2"/>
+      <c r="E432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F432" s="2"/>
+      <c r="G432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K432" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L432" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M432" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="N432" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="O432" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="P432" s="2"/>
+      <c r="Q432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R432" s="2"/>
+      <c r="S432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y432" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z432" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="AA432" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="AB432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG432" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="AH432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK432" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B433" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="C433" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="D433" s="2"/>
+      <c r="E433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F433" s="2"/>
+      <c r="G433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H433" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K433" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L433" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M433" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="N433" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="O433" s="2"/>
+      <c r="P433" s="2"/>
+      <c r="Q433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R433" s="2"/>
+      <c r="S433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y433" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z433" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="AA433" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="AB433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG433" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="AH433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI433" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK433" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B434" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="C434" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="D434" s="2"/>
+      <c r="E434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F434" s="2"/>
+      <c r="G434" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H434" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L434" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M434" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="N434" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="O434" s="2"/>
+      <c r="P434" s="2"/>
+      <c r="Q434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R434" s="2"/>
+      <c r="S434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y434" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z434" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="AA434" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="AB434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG434" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="AH434" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI434" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK434" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B435" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="C435" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="D435" s="2"/>
+      <c r="E435" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="F435" s="2"/>
+      <c r="G435" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H435" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K435" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L435" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M435" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="N435" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="O435" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="P435" s="2"/>
+      <c r="Q435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R435" s="2"/>
+      <c r="S435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG435" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="AH435" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI435" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK435" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B436" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="C436" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="D436" s="2"/>
+      <c r="E436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F436" s="2"/>
+      <c r="G436" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K436" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L436" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="M436" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="N436" t="s" s="2">
+        <v>1088</v>
+      </c>
+      <c r="O436" s="2"/>
+      <c r="P436" s="2"/>
+      <c r="Q436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R436" s="2"/>
+      <c r="S436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG436" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="AH436" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK436" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B437" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="C437" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="D437" s="2"/>
+      <c r="E437" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="F437" s="2"/>
+      <c r="G437" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L437" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="M437" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="N437" t="s" s="2">
+        <v>1093</v>
+      </c>
+      <c r="O437" s="2"/>
+      <c r="P437" s="2"/>
+      <c r="Q437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R437" s="2"/>
+      <c r="S437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG437" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="AH437" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK437" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B438" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="C438" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="D438" s="2"/>
+      <c r="E438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F438" s="2"/>
+      <c r="G438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K438" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L438" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M438" t="s" s="2">
+        <v>1095</v>
+      </c>
+      <c r="N438" t="s" s="2">
+        <v>1096</v>
+      </c>
+      <c r="O438" s="2"/>
+      <c r="P438" s="2"/>
+      <c r="Q438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R438" s="2"/>
+      <c r="S438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG438" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="AH438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK438" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B439" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="C439" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="D439" s="2"/>
+      <c r="E439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F439" s="2"/>
+      <c r="G439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H439" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L439" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M439" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N439" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O439" s="2"/>
+      <c r="P439" s="2"/>
+      <c r="Q439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R439" s="2"/>
+      <c r="S439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG439" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI439" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK439" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B440" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="C440" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="D440" s="2"/>
+      <c r="E440" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F440" s="2"/>
+      <c r="G440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L440" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M440" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N440" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O440" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P440" s="2"/>
+      <c r="Q440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R440" s="2"/>
+      <c r="S440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG440" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK440" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B441" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="C441" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="D441" s="2"/>
+      <c r="E441" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F441" s="2"/>
+      <c r="G441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J441" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K441" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L441" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M441" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N441" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O441" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P441" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R441" s="2"/>
+      <c r="S441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG441" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK441" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B442" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C442" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="D442" s="2"/>
+      <c r="E442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F442" s="2"/>
+      <c r="G442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K442" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L442" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M442" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="N442" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="O442" t="s" s="2">
+        <v>1103</v>
+      </c>
+      <c r="P442" s="2"/>
+      <c r="Q442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R442" s="2"/>
+      <c r="S442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y442" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z442" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="AA442" t="s" s="2">
+        <v>1104</v>
+      </c>
+      <c r="AB442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG442" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="AH442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK442" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B443" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="C443" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="D443" s="2"/>
+      <c r="E443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F443" s="2"/>
+      <c r="G443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H443" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L443" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M443" t="s" s="2">
+        <v>1106</v>
+      </c>
+      <c r="N443" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="O443" s="2"/>
+      <c r="P443" s="2"/>
+      <c r="Q443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R443" s="2"/>
+      <c r="S443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG443" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="AH443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI443" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK443" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B444" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="C444" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="D444" s="2"/>
+      <c r="E444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F444" s="2"/>
+      <c r="G444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H444" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K444" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L444" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="M444" t="s" s="2">
+        <v>1110</v>
+      </c>
+      <c r="N444" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="O444" s="2"/>
+      <c r="P444" s="2"/>
+      <c r="Q444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R444" s="2"/>
+      <c r="S444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG444" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="AH444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI444" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK444" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B445" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="C445" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="D445" s="2"/>
+      <c r="E445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F445" s="2"/>
+      <c r="G445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K445" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L445" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="M445" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="N445" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="O445" s="2"/>
+      <c r="P445" s="2"/>
+      <c r="Q445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R445" s="2"/>
+      <c r="S445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG445" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="AH445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK445" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B446" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="C446" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="D446" s="2"/>
+      <c r="E446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F446" s="2"/>
+      <c r="G446" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H446" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L446" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M446" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="N446" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="O446" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="P446" s="2"/>
+      <c r="Q446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R446" s="2"/>
+      <c r="S446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG446" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="AH446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI446" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK446" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B447" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="C447" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="D447" s="2"/>
+      <c r="E447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F447" s="2"/>
+      <c r="G447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H447" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L447" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="M447" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="N447" t="s" s="2">
+        <v>1123</v>
+      </c>
+      <c r="O447" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="P447" s="2"/>
+      <c r="Q447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R447" s="2"/>
+      <c r="S447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG447" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="AH447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI447" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK447" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B448" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="C448" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="D448" s="2"/>
+      <c r="E448" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="F448" s="2"/>
+      <c r="G448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K448" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L448" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M448" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="N448" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="O448" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="P448" s="2"/>
+      <c r="Q448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R448" s="2"/>
+      <c r="S448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y448" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z448" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="AA448" t="s" s="2">
+        <v>1131</v>
+      </c>
+      <c r="AB448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG448" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="AH448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK448" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B449" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="C449" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="D449" s="2"/>
+      <c r="E449" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="F449" s="2"/>
+      <c r="G449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K449" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L449" t="s" s="2">
+        <v>1133</v>
+      </c>
+      <c r="M449" t="s" s="2">
+        <v>1134</v>
+      </c>
+      <c r="N449" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="O449" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="P449" s="2"/>
+      <c r="Q449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R449" s="2"/>
+      <c r="S449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG449" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="AH449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK449" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B450" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="C450" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="D450" s="2"/>
+      <c r="E450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F450" s="2"/>
+      <c r="G450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K450" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L450" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M450" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="N450" t="s" s="2">
+        <v>1137</v>
+      </c>
+      <c r="O450" s="2"/>
+      <c r="P450" s="2"/>
+      <c r="Q450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R450" s="2"/>
+      <c r="S450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG450" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="AH450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ450" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK450" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B451" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="C451" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="D451" s="2"/>
+      <c r="E451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F451" s="2"/>
+      <c r="G451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H451" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L451" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M451" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N451" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O451" s="2"/>
+      <c r="P451" s="2"/>
+      <c r="Q451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R451" s="2"/>
+      <c r="S451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG451" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI451" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ451" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK451" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B452" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="C452" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="D452" s="2"/>
+      <c r="E452" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F452" s="2"/>
+      <c r="G452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L452" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M452" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N452" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O452" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P452" s="2"/>
+      <c r="Q452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R452" s="2"/>
+      <c r="S452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG452" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK452" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B453" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="C453" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="D453" s="2"/>
+      <c r="E453" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F453" s="2"/>
+      <c r="G453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J453" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K453" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L453" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M453" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N453" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O453" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P453" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R453" s="2"/>
+      <c r="S453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG453" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK453" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B454" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="C454" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="D454" s="2"/>
+      <c r="E454" t="s" s="2">
+        <v>1142</v>
+      </c>
+      <c r="F454" s="2"/>
+      <c r="G454" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H454" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K454" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L454" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="M454" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="N454" t="s" s="2">
+        <v>1145</v>
+      </c>
+      <c r="O454" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="P454" s="2"/>
+      <c r="Q454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R454" s="2"/>
+      <c r="S454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG454" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="AH454" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI454" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK454" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B455" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="C455" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="D455" s="2"/>
+      <c r="E455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F455" s="2"/>
+      <c r="G455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H455" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L455" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M455" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="N455" t="s" s="2">
+        <v>1148</v>
+      </c>
+      <c r="O455" s="2"/>
+      <c r="P455" s="2"/>
+      <c r="Q455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R455" s="2"/>
+      <c r="S455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y455" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z455" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="AA455" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="AB455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG455" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="AH455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI455" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK455" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B456" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C456" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="D456" s="2"/>
+      <c r="E456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F456" s="2"/>
+      <c r="G456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H456" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L456" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M456" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="N456" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="O456" s="2"/>
+      <c r="P456" s="2"/>
+      <c r="Q456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R456" s="2"/>
+      <c r="S456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG456" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="AH456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI456" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK456" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B457" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="C457" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="D457" s="2"/>
+      <c r="E457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F457" s="2"/>
+      <c r="G457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L457" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="M457" t="s" s="2">
+        <v>1157</v>
+      </c>
+      <c r="N457" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="O457" t="s" s="2">
+        <v>1159</v>
+      </c>
+      <c r="P457" s="2"/>
+      <c r="Q457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R457" s="2"/>
+      <c r="S457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG457" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="AH457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK457" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B458" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="C458" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="D458" s="2"/>
+      <c r="E458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F458" s="2"/>
+      <c r="G458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H458" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L458" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M458" t="s" s="2">
+        <v>1161</v>
+      </c>
+      <c r="N458" t="s" s="2">
+        <v>1162</v>
+      </c>
+      <c r="O458" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="P458" s="2"/>
+      <c r="Q458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R458" s="2"/>
+      <c r="S458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG458" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="AH458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI458" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK458" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B459" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="C459" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="D459" s="2"/>
+      <c r="E459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F459" s="2"/>
+      <c r="G459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H459" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L459" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M459" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N459" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O459" s="2"/>
+      <c r="P459" s="2"/>
+      <c r="Q459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R459" s="2"/>
+      <c r="S459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG459" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI459" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK459" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B460" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="C460" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="D460" s="2"/>
+      <c r="E460" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F460" s="2"/>
+      <c r="G460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L460" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M460" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N460" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O460" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P460" s="2"/>
+      <c r="Q460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R460" s="2"/>
+      <c r="S460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG460" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ460" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK460" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B461" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="C461" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="D461" s="2"/>
+      <c r="E461" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F461" s="2"/>
+      <c r="G461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J461" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K461" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L461" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M461" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N461" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O461" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P461" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R461" s="2"/>
+      <c r="S461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG461" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK461" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B462" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="C462" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="D462" s="2"/>
+      <c r="E462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F462" s="2"/>
+      <c r="G462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H462" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L462" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M462" t="s" s="2">
+        <v>1168</v>
+      </c>
+      <c r="N462" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="O462" s="2"/>
+      <c r="P462" s="2"/>
+      <c r="Q462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R462" s="2"/>
+      <c r="S462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG462" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="AH462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI462" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK462" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B463" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="C463" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="D463" s="2"/>
+      <c r="E463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F463" s="2"/>
+      <c r="G463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H463" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L463" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="M463" t="s" s="2">
+        <v>1172</v>
+      </c>
+      <c r="N463" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="O463" s="2"/>
+      <c r="P463" s="2"/>
+      <c r="Q463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R463" s="2"/>
+      <c r="S463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG463" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="AH463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI463" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK463" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B464" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="C464" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="D464" s="2"/>
+      <c r="E464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F464" s="2"/>
+      <c r="G464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H464" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L464" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M464" t="s" s="2">
+        <v>1175</v>
+      </c>
+      <c r="N464" t="s" s="2">
+        <v>1176</v>
+      </c>
+      <c r="O464" s="2"/>
+      <c r="P464" s="2"/>
+      <c r="Q464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R464" s="2"/>
+      <c r="S464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y464" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z464" t="s" s="2">
+        <v>1177</v>
+      </c>
+      <c r="AA464" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="AB464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG464" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="AH464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI464" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK464" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B465" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="C465" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="D465" s="2"/>
+      <c r="E465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F465" s="2"/>
+      <c r="G465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H465" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L465" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M465" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="N465" t="s" s="2">
+        <v>1181</v>
+      </c>
+      <c r="O465" s="2"/>
+      <c r="P465" s="2"/>
+      <c r="Q465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R465" s="2"/>
+      <c r="S465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y465" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z465" t="s" s="2">
+        <v>1182</v>
+      </c>
+      <c r="AA465" t="s" s="2">
+        <v>1183</v>
+      </c>
+      <c r="AB465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG465" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="AH465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI465" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK465" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B466" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="C466" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="D466" s="2"/>
+      <c r="E466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F466" s="2"/>
+      <c r="G466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H466" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L466" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M466" t="s" s="2">
+        <v>1185</v>
+      </c>
+      <c r="N466" t="s" s="2">
+        <v>1186</v>
+      </c>
+      <c r="O466" t="s" s="2">
+        <v>1187</v>
+      </c>
+      <c r="P466" t="s" s="2">
+        <v>1188</v>
+      </c>
+      <c r="Q466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R466" s="2"/>
+      <c r="S466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y466" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z466" t="s" s="2">
+        <v>1189</v>
+      </c>
+      <c r="AA466" t="s" s="2">
+        <v>1190</v>
+      </c>
+      <c r="AB466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG466" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="AH466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI466" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ466" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK466" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B467" t="s" s="2">
+        <v>1191</v>
+      </c>
+      <c r="C467" t="s" s="2">
+        <v>1191</v>
+      </c>
+      <c r="D467" s="2"/>
+      <c r="E467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F467" s="2"/>
+      <c r="G467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H467" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L467" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M467" t="s" s="2">
+        <v>1192</v>
+      </c>
+      <c r="N467" t="s" s="2">
+        <v>1193</v>
+      </c>
+      <c r="O467" s="2"/>
+      <c r="P467" s="2"/>
+      <c r="Q467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R467" s="2"/>
+      <c r="S467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y467" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z467" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="AA467" t="s" s="2">
+        <v>1195</v>
+      </c>
+      <c r="AB467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG467" t="s" s="2">
+        <v>1191</v>
+      </c>
+      <c r="AH467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI467" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ467" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK467" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B468" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="C468" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="D468" s="2"/>
+      <c r="E468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F468" s="2"/>
+      <c r="G468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H468" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L468" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M468" t="s" s="2">
+        <v>1197</v>
+      </c>
+      <c r="N468" t="s" s="2">
+        <v>1198</v>
+      </c>
+      <c r="O468" s="2"/>
+      <c r="P468" s="2"/>
+      <c r="Q468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R468" s="2"/>
+      <c r="S468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y468" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z468" t="s" s="2">
+        <v>1199</v>
+      </c>
+      <c r="AA468" t="s" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AB468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG468" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="AH468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI468" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ468" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK468" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B469" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="C469" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="D469" s="2"/>
+      <c r="E469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F469" s="2"/>
+      <c r="G469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H469" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L469" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="M469" t="s" s="2">
+        <v>1202</v>
+      </c>
+      <c r="N469" t="s" s="2">
+        <v>1203</v>
+      </c>
+      <c r="O469" s="2"/>
+      <c r="P469" s="2"/>
+      <c r="Q469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R469" s="2"/>
+      <c r="S469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG469" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="AH469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI469" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ469" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK469" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B470" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="C470" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="D470" s="2"/>
+      <c r="E470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F470" s="2"/>
+      <c r="G470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H470" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L470" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M470" t="s" s="2">
+        <v>1205</v>
+      </c>
+      <c r="N470" t="s" s="2">
+        <v>1206</v>
+      </c>
+      <c r="O470" s="2"/>
+      <c r="P470" s="2"/>
+      <c r="Q470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R470" s="2"/>
+      <c r="S470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y470" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z470" t="s" s="2">
+        <v>1207</v>
+      </c>
+      <c r="AA470" t="s" s="2">
+        <v>1208</v>
+      </c>
+      <c r="AB470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG470" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="AH470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI470" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ470" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK470" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B471" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="C471" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="D471" s="2"/>
+      <c r="E471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F471" s="2"/>
+      <c r="G471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H471" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L471" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M471" t="s" s="2">
+        <v>1210</v>
+      </c>
+      <c r="N471" t="s" s="2">
+        <v>1211</v>
+      </c>
+      <c r="O471" t="s" s="2">
+        <v>1212</v>
+      </c>
+      <c r="P471" s="2"/>
+      <c r="Q471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R471" s="2"/>
+      <c r="S471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG471" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="AH471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI471" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ471" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK471" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B472" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="C472" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="D472" s="2"/>
+      <c r="E472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F472" s="2"/>
+      <c r="G472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H472" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L472" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M472" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N472" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O472" s="2"/>
+      <c r="P472" s="2"/>
+      <c r="Q472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R472" s="2"/>
+      <c r="S472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG472" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI472" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ472" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK472" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B473" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="C473" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="D473" s="2"/>
+      <c r="E473" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F473" s="2"/>
+      <c r="G473" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H473" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L473" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M473" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N473" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O473" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P473" s="2"/>
+      <c r="Q473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R473" s="2"/>
+      <c r="S473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG473" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH473" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI473" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ473" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK473" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B474" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="C474" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="D474" s="2"/>
+      <c r="E474" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F474" s="2"/>
+      <c r="G474" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H474" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J474" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K474" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L474" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M474" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N474" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O474" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P474" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R474" s="2"/>
+      <c r="S474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG474" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH474" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI474" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ474" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK474" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B475" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="C475" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="D475" s="2"/>
+      <c r="E475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F475" s="2"/>
+      <c r="G475" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H475" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L475" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M475" t="s" s="2">
+        <v>1217</v>
+      </c>
+      <c r="N475" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="O475" s="2"/>
+      <c r="P475" s="2"/>
+      <c r="Q475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R475" s="2"/>
+      <c r="S475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG475" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="AH475" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI475" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ475" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK475" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B476" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="C476" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="D476" s="2"/>
+      <c r="E476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F476" s="2"/>
+      <c r="G476" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H476" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L476" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M476" t="s" s="2">
+        <v>1220</v>
+      </c>
+      <c r="N476" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="O476" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="P476" s="2"/>
+      <c r="Q476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R476" s="2"/>
+      <c r="S476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y476" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z476" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="AA476" t="s" s="2">
+        <v>1224</v>
+      </c>
+      <c r="AB476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG476" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="AH476" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI476" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ476" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK476" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B477" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="C477" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="D477" s="2"/>
+      <c r="E477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F477" s="2"/>
+      <c r="G477" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H477" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L477" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M477" t="s" s="2">
+        <v>1226</v>
+      </c>
+      <c r="N477" t="s" s="2">
+        <v>1227</v>
+      </c>
+      <c r="O477" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="P477" s="2"/>
+      <c r="Q477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R477" s="2"/>
+      <c r="S477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y477" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z477" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="AA477" t="s" s="2">
+        <v>1230</v>
+      </c>
+      <c r="AB477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG477" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="AH477" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI477" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ477" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK477" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B478" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="C478" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="D478" s="2"/>
+      <c r="E478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F478" s="2"/>
+      <c r="G478" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H478" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L478" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M478" t="s" s="2">
+        <v>1232</v>
+      </c>
+      <c r="N478" t="s" s="2">
+        <v>1233</v>
+      </c>
+      <c r="O478" s="2"/>
+      <c r="P478" s="2"/>
+      <c r="Q478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R478" s="2"/>
+      <c r="S478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG478" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="AH478" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI478" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ478" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK478" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B479" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C479" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D479" s="2"/>
+      <c r="E479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F479" s="2"/>
+      <c r="G479" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H479" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L479" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M479" t="s" s="2">
+        <v>1235</v>
+      </c>
+      <c r="N479" t="s" s="2">
+        <v>1236</v>
+      </c>
+      <c r="O479" s="2"/>
+      <c r="P479" s="2"/>
+      <c r="Q479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R479" s="2"/>
+      <c r="S479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG479" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="AH479" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI479" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK479" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B480" t="s" s="2">
         <v>1237</v>
       </c>
-      <c r="AH429" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI429" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ429" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK429" t="s" s="2">
+      <c r="C480" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="D480" s="2"/>
+      <c r="E480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F480" s="2"/>
+      <c r="G480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H480" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L480" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M480" t="s" s="2">
+        <v>1238</v>
+      </c>
+      <c r="N480" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="O480" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="P480" s="2"/>
+      <c r="Q480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R480" s="2"/>
+      <c r="S480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG480" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="AH480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI480" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK480" t="s" s="2">
         <v>95</v>
       </c>
     </row>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:50:39+00:00</t>
+    <t>2023-02-13T11:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -13161,7 +13161,7 @@
         <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -17975,7 +17975,7 @@
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>78</v>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:48:16+00:00</t>
+    <t>2023-02-13T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:52:44+00:00</t>
+    <t>2023-02-13T15:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:10:15+00:00</t>
+    <t>2023-02-13T15:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-14T06:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2778,7 +2778,7 @@
     <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-enrollment-type</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-patient-enrollment-type</t>
   </si>
   <si>
     <t>EpisodeOfCare.diagnosis</t>
@@ -28418,10 +28418,10 @@
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>78</v>
@@ -37942,7 +37942,7 @@
         <v>83</v>
       </c>
       <c r="H295" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I295" t="s" s="2">
         <v>78</v>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
